--- a/biology/Zoologie/Cnemaspis_caudanivea/Cnemaspis_caudanivea.xlsx
+++ b/biology/Zoologie/Cnemaspis_caudanivea/Cnemaspis_caudanivea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis caudanivea est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis caudanivea est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Kiên Giang au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Kiên Giang au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Cnemaspis caudanivea[2], un mâle adulte, mesure 108,5 mm dont 65 mm pour la queue. Cette espèce a la face dorsale grise avec une motif brun rougeâtre. Sa face ventrale est uniformément beige uniquement taché de sombre et de clair au niveau de la gorge. La pointe de la queue, sur environ le quart de sa longueur, est blanc brillant.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Cnemaspis caudanivea, un mâle adulte, mesure 108,5 mm dont 65 mm pour la queue. Cette espèce a la face dorsale grise avec une motif brun rougeâtre. Sa face ventrale est uniformément beige uniquement taché de sombre et de clair au niveau de la gorge. La pointe de la queue, sur environ le quart de sa longueur, est blanc brillant.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin cauda, « queue », et nivea, « neige », lui a été donné en référence à la couleur blanc pur de l'extrémité de sa queue[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin cauda, « queue », et nivea, « neige », lui a été donné en référence à la couleur blanc pur de l'extrémité de sa queue.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grismer &amp; Ngo, 2007 : Four new species of the gekkonid genus Cnemaspis Strauch 1887 (Reptilia: Squamata) from Southern Vietnam. Herpetologica, p. 63, n. 4, p. 482-500 (texte intégral).</t>
         </is>
